--- a/assignment summary.xlsx
+++ b/assignment summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stevens\SSW 567\HW02\SSW567-HW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B809852-E608-4EEF-ADA5-4BA047C7A926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0764355-66D8-4939-A751-D4C0B1CF866A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Test run 1</t>
   </si>
@@ -46,6 +46,18 @@
   </si>
   <si>
     <t>Defects fixed</t>
+  </si>
+  <si>
+    <t>Test run 3</t>
+  </si>
+  <si>
+    <t>Test run 4</t>
+  </si>
+  <si>
+    <t>Test run 5</t>
+  </si>
+  <si>
+    <t>Test run 6</t>
   </si>
 </sst>
 </file>
@@ -363,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -374,15 +386,27 @@
     <col min="1" max="1" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -392,8 +416,20 @@
       <c r="C2">
         <v>8</v>
       </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -403,8 +439,20 @@
       <c r="C3">
         <v>8</v>
       </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -412,10 +460,22 @@
         <v>1</v>
       </c>
       <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -423,18 +483,42 @@
         <v>6</v>
       </c>
       <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
